--- a/flaskr/uploads/verifica_qd_07032022.xlsx
+++ b/flaskr/uploads/verifica_qd_07032022.xlsx
@@ -376,17 +376,16 @@
   <dimension ref="A1:DP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="32.140625"/>
-    <col customWidth="1" max="2" min="2" width="31.140625"/>
-    <col customWidth="1" max="3" min="3" width="37"/>
+    <col customWidth="1" max="2" min="2" width="25.85546875"/>
+    <col customWidth="1" max="3" min="3" width="37.5703125"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" ht="45" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CD_AGENDA</t>
@@ -421,22 +420,12 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Q00608,Q00539,Q00431</t>
+          <t>Q00608,Q00539,Q00430</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in rivisto</t>
-        </is>
-      </c>
-      <c r="DP2" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping</t>
         </is>
       </c>
     </row>
@@ -453,22 +442,12 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Q00608,Q00539,Q00539</t>
+          <t>Q00608,Q00539</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in rivisto</t>
-        </is>
-      </c>
-      <c r="DP3" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping</t>
         </is>
       </c>
     </row>
@@ -480,7 +459,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q00430,Q00539,Q00609</t>
+          <t>Q00430,Q00539,Q00608</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -491,16 +470,6 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in rivisto</t>
-        </is>
-      </c>
-      <c r="DP4" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2597,6 @@
   </sheetData>
   <autoFilter ref="A1:C1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
